--- a/conf/용인시 통리반 설치 조례-수정.xlsx
+++ b/conf/용인시 통리반 설치 조례-수정.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>타입</t>
   </si>
@@ -92,6 +92,126 @@
   </si>
   <si>
     <t>성호샤인힐즈아파트</t>
+  </si>
+  <si>
+    <t>동천동 동천더샵이스트포레</t>
+  </si>
+  <si>
+    <t>동천동 151-2 동천더샵이스트포레</t>
+  </si>
+  <si>
+    <t>서천동 254 효성해링턴플레이스</t>
+  </si>
+  <si>
+    <t>서천동 834 효성해링턴플레이스</t>
+  </si>
+  <si>
+    <t>풍덕천동 1168-1 진산마을 삼성5차아파트</t>
+  </si>
+  <si>
+    <t>풍덕천동 1168 진산마을 삼성5차아파트</t>
+  </si>
+  <si>
+    <t>풍덕천동 1167 진산마을삼성5차</t>
+  </si>
+  <si>
+    <t>풍덕천동 1168 진산마을삼성5차</t>
+  </si>
+  <si>
+    <t>풍덕천동 1180 진산마을삼성7차</t>
+  </si>
+  <si>
+    <t>풍덕천동 1180-1 진산마을삼성7차</t>
+  </si>
+  <si>
+    <t>풍덕천동 수지광교산아이파크</t>
+  </si>
+  <si>
+    <t>풍덕천동 1238 수지광교산아이파크</t>
+  </si>
+  <si>
+    <t>풍덕천동 수지 파크푸르지오</t>
+  </si>
+  <si>
+    <t>풍덕천동 1223 수지 파크푸르지오</t>
+  </si>
+  <si>
+    <t>보라동 보라택지지구 2블럭 일성트루엘</t>
+  </si>
+  <si>
+    <t>보라동 629 일성트루엘</t>
+  </si>
+  <si>
+    <t>보라동 보라택지지구 1블럭 한양수자인</t>
+  </si>
+  <si>
+    <t>보라동 601 한양수자인</t>
+  </si>
+  <si>
+    <t>구갈동 기흥역 더샵</t>
+  </si>
+  <si>
+    <t>구갈동 234-5 기흥역 더샵</t>
+  </si>
+  <si>
+    <t>구갈동 힐스테이트 기흥</t>
+  </si>
+  <si>
+    <t>구갈동 660 힐스테이트 기흥</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구갈동 기흥역 지웰푸르지오</t>
+  </si>
+  <si>
+    <t>구갈동 658 기흥역 지웰푸르지오</t>
+  </si>
+  <si>
+    <t>구갈동 기흥역 파크푸르지오</t>
+  </si>
+  <si>
+    <t>구갈동 663 기흥역 파크푸르지오</t>
+  </si>
+  <si>
+    <t>구갈동 기흥역 센트럴푸르지오</t>
+  </si>
+  <si>
+    <t>구갈동 662 기흥역 센트럴푸르지오</t>
+  </si>
+  <si>
+    <t>구갈동 기흥역 롯데캐슬레이시티</t>
+  </si>
+  <si>
+    <t>구갈동 227-32 기흥역 롯데캐슬레이시티</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 영덕동 981 휴먼시아</t>
+  </si>
+  <si>
+    <t>영덕동 980 휴먼시아</t>
+  </si>
+  <si>
+    <t>상현동 168-1심곡마을현대프레미오</t>
+  </si>
+  <si>
+    <t>상현동 168-1 심곡마을현대프레미오</t>
+  </si>
+  <si>
+    <t>신봉동 708, 708-2, 708-11, 708-13 삼성쉐르빌 101동～109동</t>
+  </si>
+  <si>
+    <t>신봉동 708 삼성쉐르빌 101동～109동</t>
+  </si>
+  <si>
+    <t>신봉동 704, 705-1, 706 삼성쉐르빌 201동～206동</t>
+  </si>
+  <si>
+    <t>신봉동 708 삼성쉐르빌 201동～206동</t>
+  </si>
+  <si>
+    <t>신봉동 709-2～3, 709-8 삼성쉐르빌 207동～212동, 483</t>
+  </si>
+  <si>
+    <t>신봉동 708 삼성쉐르빌 207동～212동, 483</t>
   </si>
 </sst>
 </file>
@@ -138,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -251,13 +371,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -298,6 +448,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1410,15 +1569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.3984" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.9844" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.67188" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.17188" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.1719" style="1" customWidth="1"/>
@@ -1588,7 +1747,7 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" t="s" s="12">
+      <c r="B10" t="s" s="14">
         <v>21</v>
       </c>
       <c r="C10" s="13"/>
@@ -1602,6 +1761,306 @@
       <c r="G10" t="s" s="10">
         <v>26</v>
       </c>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="13.55" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="13.55" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="13.55" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="13.55" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
